--- a/templates/excel/Archive.xlsx
+++ b/templates/excel/Archive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algop\Desktop\SerWibe\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A942265-5596-4AB6-98FD-3DF28AAE8C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74B9704-3248-42AA-9D5D-241F755BE1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{DC48A8AF-A767-4AA2-A5D2-407EE1799F05}"/>
   </bookViews>
@@ -44,52 +44,52 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Turi</t>
-  </si>
-  <si>
-    <t>Olingan vaqt</t>
-  </si>
-  <si>
     <t>Xona</t>
   </si>
   <si>
-    <t>Stol</t>
-  </si>
-  <si>
     <t>Offitsant xizmati</t>
   </si>
   <si>
-    <t>Joy xizmati</t>
-  </si>
-  <si>
-    <t>Maxsulotga</t>
-  </si>
-  <si>
-    <t>Naqd</t>
-  </si>
-  <si>
-    <t>Kartadan</t>
-  </si>
-  <si>
-    <t>To`lanmagan</t>
-  </si>
-  <si>
-    <t>To'landi</t>
-  </si>
-  <si>
-    <t>Xodim</t>
-  </si>
-  <si>
-    <t>Buyurtma ma`lumotlari</t>
-  </si>
-  <si>
-    <t>Umumiy</t>
-  </si>
-  <si>
-    <t>To'lov turlari</t>
-  </si>
-  <si>
-    <t>Kirim turlari</t>
+    <t>Буюртма маълумотлари</t>
+  </si>
+  <si>
+    <t>Кирим турлари</t>
+  </si>
+  <si>
+    <t>Ходим</t>
+  </si>
+  <si>
+    <t>Тури</t>
+  </si>
+  <si>
+    <t>Олинган вақт</t>
+  </si>
+  <si>
+    <t>Стол</t>
+  </si>
+  <si>
+    <t>Жой хизмати</t>
+  </si>
+  <si>
+    <t>Махсулотга</t>
+  </si>
+  <si>
+    <t>Умумий</t>
+  </si>
+  <si>
+    <t>Нақд</t>
+  </si>
+  <si>
+    <t>Тўлов турлари</t>
+  </si>
+  <si>
+    <t>Картадан</t>
+  </si>
+  <si>
+    <t>Тўланмаган</t>
+  </si>
+  <si>
+    <t>Тўланди</t>
   </si>
 </sst>
 </file>
@@ -180,32 +180,32 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3C3A0E-2403-47CA-A8CC-FBBCDC3C35AF}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,76 +552,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
-      <c r="O1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="9"/>
+      <c r="O1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="9"/>
+      <c r="M2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/templates/excel/Archive.xlsx
+++ b/templates/excel/Archive.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algop\Desktop\SerWibe\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74B9704-3248-42AA-9D5D-241F755BE1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80CCD5A-5419-4DF8-B8AD-22594B25479B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{DC48A8AF-A767-4AA2-A5D2-407EE1799F05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{DC48A8AF-A767-4AA2-A5D2-407EE1799F05}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Буюртмалар" sheetId="1" r:id="rId1"/>
+    <sheet name="Савдо" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Буюртмалар!$A$1:$O$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>№</t>
   </si>
@@ -90,6 +91,18 @@
   </si>
   <si>
     <t>Тўланди</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
+  <si>
+    <t>Махсулот</t>
+  </si>
+  <si>
+    <t>Сотилди</t>
+  </si>
+  <si>
+    <t>Жами сумма</t>
   </si>
 </sst>
 </file>
@@ -178,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,6 +203,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -207,6 +223,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3C3A0E-2403-47CA-A8CC-FBBCDC3C35AF}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,37 +575,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="5" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -610,7 +633,7 @@
       <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="7"/>
       <c r="L2" s="4" t="s">
         <v>13</v>
       </c>
@@ -620,7 +643,7 @@
       <c r="N2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="6"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="3"/>
     </row>
   </sheetData>
@@ -635,4 +658,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A0D6B5-1555-41AC-B247-8D9AA023953C}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/templates/excel/Archive.xlsx
+++ b/templates/excel/Archive.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algop\Desktop\SerWibe\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80CCD5A-5419-4DF8-B8AD-22594B25479B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DF072A-2EEE-43F1-A35B-A2EFF2EB59CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{DC48A8AF-A767-4AA2-A5D2-407EE1799F05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{DC48A8AF-A767-4AA2-A5D2-407EE1799F05}"/>
   </bookViews>
   <sheets>
     <sheet name="Буюртмалар" sheetId="1" r:id="rId1"/>
-    <sheet name="Савдо" sheetId="2" r:id="rId2"/>
+    <sheet name="Савдо" sheetId="4" r:id="rId2"/>
+    <sheet name="Омбор" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Буюртмалар!$A$1:$O$38</definedName>
@@ -37,14 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>№</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Xona</t>
   </si>
   <si>
@@ -103,13 +101,25 @@
   </si>
   <si>
     <t>Жами сумма</t>
+  </si>
+  <si>
+    <t>Сони</t>
+  </si>
+  <si>
+    <t>Нархи</t>
+  </si>
+  <si>
+    <t>Охирги қўшилган вақт</t>
+  </si>
+  <si>
+    <t>ИД</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,14 +137,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -191,11 +193,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -206,30 +205,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,99 +545,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3C3A0E-2403-47CA-A8CC-FBBCDC3C35AF}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" customWidth="1"/>
-    <col min="12" max="13" width="20.109375" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" customWidth="1"/>
-    <col min="15" max="15" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13" style="6" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" style="6" customWidth="1"/>
+    <col min="12" max="13" width="20.109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="21.21875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="3"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="3"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -661,62 +654,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A0D6B5-1555-41AC-B247-8D9AA023953C}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FDFA5E-B4CB-4582-923B-77DCCF787F83}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="14" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C172A9-9249-4BD3-996A-704AD586DA4D}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/excel/Archive.xlsx
+++ b/templates/excel/Archive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algop\Desktop\SerWibe\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DF072A-2EEE-43F1-A35B-A2EFF2EB59CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB36291D-BCEA-4F18-9857-3FACE1B1A23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{DC48A8AF-A767-4AA2-A5D2-407EE1799F05}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>№</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>ИД</t>
+  </si>
+  <si>
+    <t>Тан нархи</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -655,35 +658,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FDFA5E-B4CB-4582-923B-77DCCF787F83}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="21.88671875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="7" customWidth="1"/>
+    <col min="3" max="5" width="19.21875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
